--- a/Testing Spreadsheet v.1.2 Home Page.xlsx
+++ b/Testing Spreadsheet v.1.2 Home Page.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alan\Dropbox\Testing\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alan\Documents\GitHub\Software-Testing-And-Verification\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <workbookProtection workbookPassword="A6C2" lockStructure="1"/>
@@ -19,6 +19,9 @@
     <sheet name="Test Procedures" sheetId="3" r:id="rId4"/>
     <sheet name="Settings" sheetId="6" r:id="rId5"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId6"/>
+  </externalReferences>
   <definedNames>
     <definedName name="_Toc407532261" localSheetId="0">Reqs!$B$2</definedName>
   </definedNames>
@@ -200,7 +203,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="253">
   <si>
     <t xml:space="preserve">Req </t>
   </si>
@@ -830,6 +833,171 @@
   </si>
   <si>
     <t>Instead of opening the Home page the user is directed to an error page.</t>
+  </si>
+  <si>
+    <t>Home_TConn_13</t>
+  </si>
+  <si>
+    <t>Home_TConn_14</t>
+  </si>
+  <si>
+    <t>Home_TConn_15</t>
+  </si>
+  <si>
+    <t>Home_TConn_16</t>
+  </si>
+  <si>
+    <t>Home_TConn_17</t>
+  </si>
+  <si>
+    <t>Home_TConn_18</t>
+  </si>
+  <si>
+    <t>To show that the company logo on the header of the Login page</t>
+  </si>
+  <si>
+    <t>To show that a footer with the copyright and version information should be shown on the login page</t>
+  </si>
+  <si>
+    <t>To show that the login page has a common navigation area</t>
+  </si>
+  <si>
+    <t>To show that the login page can be accessed using the target mobile devices</t>
+  </si>
+  <si>
+    <t>To show that the login page can be accessed using the target browsers</t>
+  </si>
+  <si>
+    <t>To show that the login page is consistent in the layout with the other pages</t>
+  </si>
+  <si>
+    <t>T_Case_20</t>
+  </si>
+  <si>
+    <t>T_Case_21</t>
+  </si>
+  <si>
+    <t>T_Case_22</t>
+  </si>
+  <si>
+    <t>T_Case_23</t>
+  </si>
+  <si>
+    <t>T_Case_24</t>
+  </si>
+  <si>
+    <t>Check that the Home page has a common navagational area consistent with the other web pages on the site.</t>
+  </si>
+  <si>
+    <t>Check that the Home page can be acessed from all target mobile devices.</t>
+  </si>
+  <si>
+    <t>Check that the Home page can be acessed from all target internet browsers.</t>
+  </si>
+  <si>
+    <t>T_Case_25</t>
+  </si>
+  <si>
+    <t>To show that the Home page is consistent in the layout with the other pages</t>
+  </si>
+  <si>
+    <t>Check if the company logo is displayed on the Home page</t>
+  </si>
+  <si>
+    <t>Check that the footer on the Home page shows the copyright and version information</t>
+  </si>
+  <si>
+    <t>Requirements 4.1.1</t>
+  </si>
+  <si>
+    <t>Requirements 4.1.2</t>
+  </si>
+  <si>
+    <t>Requirements 4.1.7</t>
+  </si>
+  <si>
+    <t>Requirements 3.2.2</t>
+  </si>
+  <si>
+    <t>Home_4</t>
+  </si>
+  <si>
+    <t>The background where the textual information about the company is located is blue on all browsers and devices except firefox where it is green.</t>
+  </si>
+  <si>
+    <t>Home_Tproc_21</t>
+  </si>
+  <si>
+    <t>Home_Tproc_22</t>
+  </si>
+  <si>
+    <t>TCase_20</t>
+  </si>
+  <si>
+    <t>TCase_21</t>
+  </si>
+  <si>
+    <t>The company logo is displayed on the home page.</t>
+  </si>
+  <si>
+    <t>The copyright and version information is displayed in the footer of the Home page.</t>
+  </si>
+  <si>
+    <t>Look for company logo on the Home page</t>
+  </si>
+  <si>
+    <t>Look for the copyright and version information in the footer of the Home page</t>
+  </si>
+  <si>
+    <t>Home_Tproc_23</t>
+  </si>
+  <si>
+    <t>Home_Tproc_24</t>
+  </si>
+  <si>
+    <t>Home_Tproc_25</t>
+  </si>
+  <si>
+    <t>Home_Tproc_26</t>
+  </si>
+  <si>
+    <t>TCase_22</t>
+  </si>
+  <si>
+    <t>TCase_23</t>
+  </si>
+  <si>
+    <t>TCase_24</t>
+  </si>
+  <si>
+    <t>TCase_25</t>
+  </si>
+  <si>
+    <t>Look for the common navigational area at the top of the Home page.</t>
+  </si>
+  <si>
+    <t>The navigational tabs are displayed on the Home page</t>
+  </si>
+  <si>
+    <t>Access the Home page from all target mobile devices.</t>
+  </si>
+  <si>
+    <t>Works on Amazon Kindle Fire 7 inch, iPad 4, iPhone 6, Google Nexus 10 and Samsung Galaxy S4</t>
+  </si>
+  <si>
+    <t>Access the Home page from all target web browsers.</t>
+  </si>
+  <si>
+    <t>Works on newest versions of  Google Chrome, Firefox and Internet Explorer</t>
+  </si>
+  <si>
+    <t>Check the layout of the Home page is consistent across all mobile devices and web browsers.</t>
+  </si>
+  <si>
+    <t>The layout is the same across all devices.</t>
+  </si>
+  <si>
+    <t>Amazon Kindle Fire 7 inch, iPad 4, iPhone 6, Google Nexus 10 and Samsung Galaxy S4, Google Chrome, Firefox, Internet Explorer.</t>
   </si>
 </sst>
 </file>
@@ -1191,6 +1359,7 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="0"/>
+              <c:layout/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
               <c:showCatName val="0"/>
@@ -1198,11 +1367,14 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="1"/>
+              <c:layout/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
               <c:showCatName val="0"/>
@@ -1210,11 +1382,14 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="2"/>
+              <c:layout/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
               <c:showCatName val="0"/>
@@ -1222,7 +1397,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:spPr>
@@ -1266,10 +1443,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>16</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -1292,6 +1469,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1364,7 +1542,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -1373,7 +1551,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1388,11 +1566,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="267275968"/>
-        <c:axId val="267270088"/>
+        <c:axId val="260253296"/>
+        <c:axId val="260256824"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="267275968"/>
+        <c:axId val="260253296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1402,7 +1580,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="267270088"/>
+        <c:crossAx val="260256824"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1410,7 +1588,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="267270088"/>
+        <c:axId val="260256824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1421,7 +1599,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="267275968"/>
+        <c:crossAx val="260253296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1501,6 +1679,27 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Reqs"/>
+      <sheetName val="Test Conditions"/>
+      <sheetName val="Test Cases"/>
+      <sheetName val="Test Procedures"/>
+      <sheetName val="Settings"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1827,10 +2026,10 @@
   <sheetPr>
     <tabColor rgb="FF023FAE"/>
   </sheetPr>
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="132" zoomScaleNormal="132" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView topLeftCell="A11" zoomScale="132" zoomScaleNormal="132" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2038,23 +2237,107 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="D14" s="1"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="D15" s="1"/>
+    <row r="14" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A14" s="38" t="s">
+        <v>198</v>
+      </c>
+      <c r="B14" s="38" t="s">
+        <v>204</v>
+      </c>
+      <c r="C14" s="38" t="s">
+        <v>222</v>
+      </c>
+      <c r="D14" s="38" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A15" s="38" t="s">
+        <v>199</v>
+      </c>
+      <c r="B15" s="38" t="s">
+        <v>205</v>
+      </c>
+      <c r="C15" s="38" t="s">
+        <v>223</v>
+      </c>
+      <c r="D15" s="38" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A16" s="38" t="s">
+        <v>200</v>
+      </c>
+      <c r="B16" s="38" t="s">
+        <v>206</v>
+      </c>
+      <c r="C16" s="38" t="s">
+        <v>224</v>
+      </c>
+      <c r="D16" s="38" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A17" s="38" t="s">
+        <v>201</v>
+      </c>
+      <c r="B17" s="38" t="s">
+        <v>207</v>
+      </c>
+      <c r="C17" s="38" t="s">
+        <v>225</v>
+      </c>
+      <c r="D17" s="38" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A18" s="38" t="s">
+        <v>202</v>
+      </c>
+      <c r="B18" s="38" t="s">
+        <v>208</v>
+      </c>
+      <c r="C18" s="38" t="s">
+        <v>225</v>
+      </c>
+      <c r="D18" s="38" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A19" s="38" t="s">
+        <v>203</v>
+      </c>
+      <c r="B19" s="38" t="s">
+        <v>209</v>
+      </c>
+      <c r="C19" s="38" t="s">
+        <v>57</v>
+      </c>
+      <c r="D19" s="38" t="s">
+        <v>11</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Settings!$B$4:$B$6</xm:f>
           </x14:formula1>
-          <xm:sqref>D2:D4 D6:D15</xm:sqref>
+          <xm:sqref>D2:D4 D6:D13</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>[1]Settings!#REF!</xm:f>
+          </x14:formula1>
+          <xm:sqref>D14:D19</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -2069,8 +2352,8 @@
   </sheetPr>
   <dimension ref="A1:Z160"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E13" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="O23" sqref="O23"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="P18" sqref="P18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2333,7 +2616,7 @@
       </c>
       <c r="U6" s="37">
         <f>COUNTIF(H2:H89,"*Passed*")</f>
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="70" x14ac:dyDescent="0.35">
@@ -2376,7 +2659,7 @@
       </c>
       <c r="U7" s="29">
         <f>COUNTIF(H3:H89,"*Failed*")</f>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="70" x14ac:dyDescent="0.35">
@@ -2879,58 +3162,145 @@
       </c>
       <c r="P20" s="8"/>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="B21" s="3"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="24"/>
-      <c r="I21" s="8"/>
+    <row r="21" spans="1:21" ht="42" x14ac:dyDescent="0.35">
+      <c r="A21" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="F21" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G21" s="32">
+        <v>42109</v>
+      </c>
+      <c r="H21" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="I21" s="7" t="s">
+        <v>109</v>
+      </c>
       <c r="J21" s="8"/>
-      <c r="K21" s="8"/>
-      <c r="L21" s="8"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="4"/>
       <c r="M21" s="8"/>
       <c r="N21" s="8"/>
       <c r="O21" s="8"/>
       <c r="P21" s="8"/>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="E22" s="8"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="24"/>
-      <c r="I22" s="8"/>
+    <row r="22" spans="1:21" ht="56" x14ac:dyDescent="0.35">
+      <c r="A22" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="F22" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G22" s="32">
+        <v>42109</v>
+      </c>
+      <c r="H22" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="I22" s="7" t="s">
+        <v>109</v>
+      </c>
       <c r="J22" s="8"/>
-      <c r="K22" s="8"/>
-      <c r="L22" s="8"/>
+      <c r="K22" s="4"/>
+      <c r="L22" s="4"/>
       <c r="M22" s="8"/>
       <c r="N22" s="8"/>
       <c r="O22" s="8"/>
       <c r="P22" s="8"/>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="E23" s="8"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="24"/>
-      <c r="I23" s="8"/>
+    <row r="23" spans="1:21" ht="70" x14ac:dyDescent="0.35">
+      <c r="A23" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="F23" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="G23" s="32">
+        <v>42109</v>
+      </c>
+      <c r="H23" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="I23" s="7" t="s">
+        <v>109</v>
+      </c>
       <c r="J23" s="8"/>
-      <c r="K23" s="8"/>
-      <c r="L23" s="8"/>
-      <c r="M23" s="8"/>
+      <c r="K23" s="4"/>
+      <c r="L23" s="4"/>
+      <c r="M23" s="24"/>
       <c r="N23" s="8"/>
       <c r="O23" s="8"/>
       <c r="P23" s="8"/>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="E24" s="8"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="24"/>
-      <c r="I24" s="8"/>
+    <row r="24" spans="1:21" ht="42" x14ac:dyDescent="0.35">
+      <c r="A24" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="F24" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="G24" s="32">
+        <v>42109</v>
+      </c>
+      <c r="H24" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="I24" s="7" t="s">
+        <v>109</v>
+      </c>
       <c r="J24" s="8"/>
-      <c r="K24" s="8"/>
-      <c r="L24" s="8"/>
+      <c r="K24" s="4"/>
+      <c r="L24" s="4"/>
       <c r="M24" s="8"/>
       <c r="N24" s="8"/>
       <c r="O24" s="8"/>
@@ -2939,15 +3309,37 @@
         <v>53</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="E25" s="8"/>
-      <c r="F25" s="9"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="24"/>
-      <c r="I25" s="8"/>
+    <row r="25" spans="1:21" ht="42" x14ac:dyDescent="0.35">
+      <c r="A25" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="F25" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="G25" s="32">
+        <v>42109</v>
+      </c>
+      <c r="H25" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="I25" s="7" t="s">
+        <v>109</v>
+      </c>
       <c r="J25" s="8"/>
-      <c r="K25" s="8"/>
-      <c r="L25" s="8"/>
+      <c r="K25" s="4"/>
+      <c r="L25" s="4"/>
       <c r="M25" s="8"/>
       <c r="N25" s="8"/>
       <c r="O25" s="8"/>
@@ -2960,25 +3352,57 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="E26" s="8"/>
-      <c r="F26" s="9"/>
-      <c r="G26" s="8"/>
-      <c r="H26" s="24"/>
-      <c r="I26" s="8"/>
-      <c r="J26" s="8"/>
-      <c r="K26" s="8"/>
-      <c r="L26" s="8"/>
-      <c r="M26" s="8"/>
+    <row r="26" spans="1:21" ht="58" x14ac:dyDescent="0.35">
+      <c r="A26" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="B26" s="38" t="s">
+        <v>219</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="F26" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G26" s="32">
+        <v>42109</v>
+      </c>
+      <c r="H26" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="I26" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="J26" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="K26" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="L26" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="M26" s="32">
+        <v>42109</v>
+      </c>
       <c r="N26" s="8"/>
-      <c r="O26" s="8"/>
+      <c r="O26" s="38" t="s">
+        <v>227</v>
+      </c>
       <c r="P26" s="8"/>
       <c r="T26" t="s">
         <v>54</v>
       </c>
       <c r="U26" s="29">
-        <f>COUNTIF(L2:L5,"*Moderate*")</f>
-        <v>0</v>
+        <f>COUNTIF(L2:L26,"*Moderate*")</f>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.35">
@@ -2998,7 +3422,7 @@
         <v>35</v>
       </c>
       <c r="U27" s="29">
-        <f>COUNTIF(L2:L5,"*Major*")</f>
+        <f>COUNTIF(L2:L26,"*Major*")</f>
         <v>0</v>
       </c>
     </row>
@@ -3019,7 +3443,7 @@
         <v>36</v>
       </c>
       <c r="U28" s="29">
-        <f>COUNTIF(L2:L5,"*Critical*")</f>
+        <f>COUNTIF(L2:L26,"*Critical*")</f>
         <v>0</v>
       </c>
     </row>
@@ -3040,8 +3464,8 @@
         <v>38</v>
       </c>
       <c r="U29" s="29">
-        <f>COUNTIF(L2:L5,"*Cometic*")</f>
-        <v>0</v>
+        <f>COUNTIF(L2:L26,"*Cosmetic*")</f>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.35">
@@ -4901,7 +5325,7 @@
           <x14:formula1>
             <xm:f>Settings!$F$4:$F$8</xm:f>
           </x14:formula1>
-          <xm:sqref>L2:L20</xm:sqref>
+          <xm:sqref>L2:L26</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
@@ -4913,7 +5337,7 @@
           <x14:formula1>
             <xm:f>Settings!$D$4:$D$6</xm:f>
           </x14:formula1>
-          <xm:sqref>K2:K20</xm:sqref>
+          <xm:sqref>K2:K26</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -4926,10 +5350,10 @@
   <sheetPr>
     <tabColor rgb="FF99FF99"/>
   </sheetPr>
-  <dimension ref="A1:M21"/>
+  <dimension ref="A1:M27"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView topLeftCell="A13" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5444,6 +5868,108 @@
       </c>
       <c r="E21" s="38" t="s">
         <v>155</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A22" s="38" t="s">
+        <v>228</v>
+      </c>
+      <c r="B22" s="38" t="s">
+        <v>230</v>
+      </c>
+      <c r="C22" s="38" t="s">
+        <v>234</v>
+      </c>
+      <c r="D22" s="38" t="s">
+        <v>232</v>
+      </c>
+      <c r="E22" s="38" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="58" x14ac:dyDescent="0.35">
+      <c r="A23" s="38" t="s">
+        <v>229</v>
+      </c>
+      <c r="B23" s="38" t="s">
+        <v>231</v>
+      </c>
+      <c r="C23" s="38" t="s">
+        <v>235</v>
+      </c>
+      <c r="D23" s="38" t="s">
+        <v>233</v>
+      </c>
+      <c r="E23" s="38" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A24" s="38" t="s">
+        <v>236</v>
+      </c>
+      <c r="B24" s="38" t="s">
+        <v>240</v>
+      </c>
+      <c r="C24" s="38" t="s">
+        <v>244</v>
+      </c>
+      <c r="D24" s="38" t="s">
+        <v>245</v>
+      </c>
+      <c r="E24" s="38" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="58" x14ac:dyDescent="0.35">
+      <c r="A25" s="38" t="s">
+        <v>237</v>
+      </c>
+      <c r="B25" s="38" t="s">
+        <v>241</v>
+      </c>
+      <c r="C25" s="38" t="s">
+        <v>246</v>
+      </c>
+      <c r="D25" s="38" t="s">
+        <v>116</v>
+      </c>
+      <c r="E25" s="38" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A26" s="38" t="s">
+        <v>238</v>
+      </c>
+      <c r="B26" s="38" t="s">
+        <v>242</v>
+      </c>
+      <c r="C26" s="38" t="s">
+        <v>248</v>
+      </c>
+      <c r="D26" s="38" t="s">
+        <v>116</v>
+      </c>
+      <c r="E26" s="38" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A27" s="38" t="s">
+        <v>239</v>
+      </c>
+      <c r="B27" s="38" t="s">
+        <v>243</v>
+      </c>
+      <c r="C27" s="38" t="s">
+        <v>250</v>
+      </c>
+      <c r="D27" s="38" t="s">
+        <v>251</v>
+      </c>
+      <c r="E27" s="38" t="s">
+        <v>252</v>
       </c>
     </row>
   </sheetData>
@@ -5544,6 +6070,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C0A86D0A1DF85A4CBF24319CD50F658E" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="18023c554c1e7c0fe5f8bda126dbbbe1">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c64490b4aec6201516c3a874156f37b2">
     <xsd:element name="properties">
@@ -5657,24 +6192,15 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FEF49AB9-68C3-4E70-84F5-930D4AF0373D}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
   </ds:schemaRefs>
@@ -5682,6 +6208,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A346E62E-1A2C-4E03-B91F-FE4FC47F8E89}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{64745CD4-DB27-427B-80D9-1CCB91D6E4BC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5695,12 +6229,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A346E62E-1A2C-4E03-B91F-FE4FC47F8E89}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Testing Spreadsheet v.1.2 Home Page.xlsx
+++ b/Testing Spreadsheet v.1.2 Home Page.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <workbookProtection workbookPassword="A6C2" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16180" windowHeight="7860" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16180" windowHeight="7860" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Reqs" sheetId="5" r:id="rId1"/>
@@ -203,7 +203,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="278">
   <si>
     <t xml:space="preserve">Req </t>
   </si>
@@ -999,12 +999,87 @@
   <si>
     <t>Amazon Kindle Fire 7 inch, iPad 4, iPhone 6, Google Nexus 10 and Samsung Galaxy S4, Google Chrome, Firefox, Internet Explorer.</t>
   </si>
+  <si>
+    <t xml:space="preserve">Requirements 4.1.9 </t>
+  </si>
+  <si>
+    <t>From any web page all users of the system that are not logged in should be able to directly navigate to the Register and Log in pages.</t>
+  </si>
+  <si>
+    <t>Home_TConn_19</t>
+  </si>
+  <si>
+    <t>Home_TConn_20</t>
+  </si>
+  <si>
+    <t>Home_TConn_21</t>
+  </si>
+  <si>
+    <t>In addition all logged in users should be able to log off from any page.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">From any web page all users of the system that are logged in should be able to directly navigate to the My Account – reset password page. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Requirements 4.1.10 </t>
+  </si>
+  <si>
+    <t>T_Case_26</t>
+  </si>
+  <si>
+    <t>T_Case_27</t>
+  </si>
+  <si>
+    <t>T_Case_28</t>
+  </si>
+  <si>
+    <t>To show that from the Home page, a user can navigate directly to the Register and login pages</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check that from the Home page users that are logged in are able to directly navigate to the My Account – reset password page. </t>
+  </si>
+  <si>
+    <t>Check that from the Home page logged in users are able to log off from any page.</t>
+  </si>
+  <si>
+    <t>Home_Tproc_27</t>
+  </si>
+  <si>
+    <t>Home_Tproc_28</t>
+  </si>
+  <si>
+    <t>While on the Home page when the register tab is clicked.</t>
+  </si>
+  <si>
+    <t>The Register page is displayed.</t>
+  </si>
+  <si>
+    <t>While on the Home page when the Loigin tab is clicked.</t>
+  </si>
+  <si>
+    <t>While on the Home page and logged in, when the username in the top right is clicked.</t>
+  </si>
+  <si>
+    <t>The My Account – reset password page. Is displayed.</t>
+  </si>
+  <si>
+    <t>Home_Tproc_29</t>
+  </si>
+  <si>
+    <t>Home_Tproc_30</t>
+  </si>
+  <si>
+    <t>While on the Home page and looged in, when the log off tab is clikcked</t>
+  </si>
+  <si>
+    <t>The user is logged off</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1102,6 +1177,13 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -1190,7 +1272,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1296,6 +1378,12 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1443,7 +1531,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>21</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>4</c:v>
@@ -1539,10 +1627,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -1566,11 +1654,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="260253296"/>
-        <c:axId val="260256824"/>
+        <c:axId val="283541136"/>
+        <c:axId val="283542704"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="260253296"/>
+        <c:axId val="283541136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1580,7 +1668,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="260256824"/>
+        <c:crossAx val="283542704"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1588,7 +1676,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="260256824"/>
+        <c:axId val="283542704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1599,7 +1687,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="260253296"/>
+        <c:crossAx val="283541136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2026,10 +2114,10 @@
   <sheetPr>
     <tabColor rgb="FF023FAE"/>
   </sheetPr>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" zoomScale="132" zoomScaleNormal="132" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView topLeftCell="A13" zoomScale="132" zoomScaleNormal="132" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2321,9 +2409,52 @@
         <v>11</v>
       </c>
     </row>
+    <row r="20" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A20" s="38" t="s">
+        <v>255</v>
+      </c>
+      <c r="B20" s="40" t="s">
+        <v>254</v>
+      </c>
+      <c r="C20" s="38" t="s">
+        <v>253</v>
+      </c>
+      <c r="D20" s="38" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A21" s="38" t="s">
+        <v>256</v>
+      </c>
+      <c r="B21" s="40" t="s">
+        <v>259</v>
+      </c>
+      <c r="C21" s="38" t="s">
+        <v>260</v>
+      </c>
+      <c r="D21" s="38" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A22" s="38" t="s">
+        <v>257</v>
+      </c>
+      <c r="B22" s="41" t="s">
+        <v>258</v>
+      </c>
+      <c r="C22" s="38" t="s">
+        <v>260</v>
+      </c>
+      <c r="D22" s="38" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
@@ -2352,8 +2483,8 @@
   </sheetPr>
   <dimension ref="A1:Z160"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="P18" sqref="P18"/>
+    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2616,7 +2747,7 @@
       </c>
       <c r="U6" s="37">
         <f>COUNTIF(H2:H89,"*Passed*")</f>
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="70" x14ac:dyDescent="0.35">
@@ -2915,7 +3046,7 @@
         <v>33</v>
       </c>
       <c r="L14" s="4" t="s">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="M14" s="31">
         <v>42082</v>
@@ -3151,7 +3282,7 @@
         <v>33</v>
       </c>
       <c r="L20" s="4" t="s">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="M20" s="39">
         <v>42104</v>
@@ -3349,7 +3480,7 @@
       </c>
       <c r="U25" s="29">
         <f>COUNTIF(L2:L49,"*Minor*")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:21" ht="58" x14ac:dyDescent="0.35">
@@ -3402,15 +3533,37 @@
       </c>
       <c r="U26" s="29">
         <f>COUNTIF(L2:L26,"*Moderate*")</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="E27" s="8"/>
-      <c r="F27" s="9"/>
-      <c r="G27" s="8"/>
-      <c r="H27" s="24"/>
-      <c r="I27" s="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" ht="56" x14ac:dyDescent="0.35">
+      <c r="A27" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>255</v>
+      </c>
+      <c r="F27" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="G27" s="32">
+        <v>42109</v>
+      </c>
+      <c r="H27" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="I27" s="7" t="s">
+        <v>109</v>
+      </c>
       <c r="J27" s="8"/>
       <c r="K27" s="8"/>
       <c r="L27" s="8"/>
@@ -3426,12 +3579,34 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="E28" s="8"/>
-      <c r="F28" s="9"/>
-      <c r="G28" s="8"/>
-      <c r="H28" s="24"/>
-      <c r="I28" s="8"/>
+    <row r="28" spans="1:21" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A28" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="B28" s="40" t="s">
+        <v>265</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="F28" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="G28" s="32">
+        <v>42109</v>
+      </c>
+      <c r="H28" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="I28" s="7" t="s">
+        <v>109</v>
+      </c>
       <c r="J28" s="8"/>
       <c r="K28" s="8"/>
       <c r="L28" s="8"/>
@@ -3447,12 +3622,34 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="E29" s="8"/>
-      <c r="F29" s="9"/>
-      <c r="G29" s="8"/>
-      <c r="H29" s="24"/>
-      <c r="I29" s="8"/>
+    <row r="29" spans="1:21" ht="58" x14ac:dyDescent="0.35">
+      <c r="A29" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="B29" s="41" t="s">
+        <v>266</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="E29" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="F29" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="G29" s="32">
+        <v>42109</v>
+      </c>
+      <c r="H29" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="I29" s="7" t="s">
+        <v>109</v>
+      </c>
       <c r="J29" s="8"/>
       <c r="K29" s="8"/>
       <c r="L29" s="8"/>
@@ -3469,6 +3666,7 @@
       </c>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A30" s="3"/>
       <c r="E30" s="8"/>
       <c r="F30" s="9"/>
       <c r="G30" s="8"/>
@@ -5350,10 +5548,10 @@
   <sheetPr>
     <tabColor rgb="FF99FF99"/>
   </sheetPr>
-  <dimension ref="A1:M27"/>
+  <dimension ref="A1:M35"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView topLeftCell="A20" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5971,6 +6169,78 @@
       <c r="E27" s="38" t="s">
         <v>252</v>
       </c>
+    </row>
+    <row r="28" spans="1:13" ht="29" x14ac:dyDescent="0.35">
+      <c r="A28" s="38" t="s">
+        <v>267</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="C28" s="38" t="s">
+        <v>269</v>
+      </c>
+      <c r="D28" s="38" t="s">
+        <v>270</v>
+      </c>
+      <c r="E28" s="38" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" ht="29" x14ac:dyDescent="0.35">
+      <c r="A29" s="38" t="s">
+        <v>268</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="C29" s="38" t="s">
+        <v>271</v>
+      </c>
+      <c r="D29" s="38" t="s">
+        <v>158</v>
+      </c>
+      <c r="E29" s="38" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A30" s="38" t="s">
+        <v>274</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="C30" s="38" t="s">
+        <v>272</v>
+      </c>
+      <c r="D30" s="41" t="s">
+        <v>273</v>
+      </c>
+      <c r="E30" s="38" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" ht="29" x14ac:dyDescent="0.35">
+      <c r="A31" s="38" t="s">
+        <v>275</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="C31" s="38" t="s">
+        <v>276</v>
+      </c>
+      <c r="D31" s="38" t="s">
+        <v>277</v>
+      </c>
+      <c r="E31" s="38" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B35" s="3"/>
+      <c r="C35" s="41"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6064,18 +6334,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6193,6 +6463,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A346E62E-1A2C-4E03-B91F-FE4FC47F8E89}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FEF49AB9-68C3-4E70-84F5-930D4AF0373D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
@@ -6203,14 +6481,6 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A346E62E-1A2C-4E03-B91F-FE4FC47F8E89}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
